--- a/secure/26P-Nolan.xlsx
+++ b/secure/26P-Nolan.xlsx
@@ -28,13 +28,13 @@
     <t>c</t>
   </si>
   <si>
-    <t>26P-Nolan-417480</t>
+    <t>26P-Nolan-641998</t>
   </si>
   <si>
-    <t>26P-Nolan-912975</t>
+    <t>26P-Nolan-1096677</t>
   </si>
   <si>
-    <t>26P-Nolan-249641</t>
+    <t>26P-Nolan-1066568</t>
   </si>
 </sst>
 </file>
@@ -66,7 +66,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="F3283bca"/>
+        <fgColor rgb="F375ce3f"/>
       </patternFill>
     </fill>
   </fills>
@@ -427,7 +427,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:XR503"/>
+  <dimension ref="A1:OP503"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -847,14 +847,11 @@
       </c>
       <c r="M66" s="4"/>
     </row>
-    <row r="67" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
         <v>-0.74</v>
       </c>
       <c r="M67" s="4"/>
-      <c r="AD67" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
@@ -1756,14 +1753,11 @@
       </c>
       <c r="M217" s="4"/>
     </row>
-    <row r="218" spans="1:522" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A218" s="3">
         <v>-0.136</v>
       </c>
       <c r="M218" s="4"/>
-      <c r="TB218" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="219" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A219" s="3">
@@ -2263,11 +2257,14 @@
       </c>
       <c r="M301" s="4"/>
     </row>
-    <row r="302" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A302" s="3">
         <v>0.2</v>
       </c>
       <c r="M302" s="4"/>
+      <c r="EM302" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="303" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A303" s="3">
@@ -2773,14 +2770,11 @@
       </c>
       <c r="M386" s="4"/>
     </row>
-    <row r="387" spans="1:642" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A387" s="3">
         <v>0.54</v>
       </c>
       <c r="M387" s="4"/>
-      <c r="XR387" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="388" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A388" s="3">
@@ -2854,11 +2848,14 @@
       </c>
       <c r="M399" s="4"/>
     </row>
-    <row r="400" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:406" x14ac:dyDescent="0.25">
       <c r="A400" s="3">
         <v>0.592</v>
       </c>
       <c r="M400" s="4"/>
+      <c r="OP400" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="401" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A401" s="3">
@@ -3034,11 +3031,14 @@
       </c>
       <c r="M429" s="4"/>
     </row>
-    <row r="430" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:382" x14ac:dyDescent="0.25">
       <c r="A430" s="3">
         <v>0.712</v>
       </c>
       <c r="M430" s="4"/>
+      <c r="NR430" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="431" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A431" s="3">
